--- a/Custom-OWASP-Checklist-Phase4.xlsx
+++ b/Custom-OWASP-Checklist-Phase4.xlsx
@@ -24,6 +24,202 @@
     <author>Thomas</author>
   </authors>
   <commentList>
+    <comment ref="D6" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Arial"/>
+          </rPr>
+          <t>Team7 BB Chapter 3.6</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Arial"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E6" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Arial"/>
+          </rPr>
+          <t>BB Team4 Chapter 3.2</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F6" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Arial"/>
+          </rPr>
+          <t>Slide 24</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Arial"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E9" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Arial"/>
+          </rPr>
+          <t xml:space="preserve">BB Team4 Chapter 3.6
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F9" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Arial"/>
+          </rPr>
+          <t>slide 35</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Arial"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E22" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Arial"/>
+          </rPr>
+          <t xml:space="preserve">BB Team4 Chapter 3.5
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F22" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Arial"/>
+          </rPr>
+          <t>slide 33</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Arial"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E35" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Arial"/>
+          </rPr>
+          <t xml:space="preserve">BB Team4 Chapter 3.1
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F35" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Arial"/>
+          </rPr>
+          <t>slide 20</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Arial"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E39" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Arial"/>
+          </rPr>
+          <t xml:space="preserve">BB Team4 Chapter 3.3
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F39" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Arial"/>
+          </rPr>
+          <t>slide 26</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Arial"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="E42" authorId="0">
       <text>
         <r>
@@ -37,7 +233,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D47" authorId="0">
+    <comment ref="F42" authorId="0">
       <text>
         <r>
           <rPr>
@@ -46,7 +242,7 @@
             <color indexed="81"/>
             <rFont val="Arial"/>
           </rPr>
-          <t>BB Chapter 4.1</t>
+          <t>Slide 30</t>
         </r>
         <r>
           <rPr>
@@ -68,7 +264,29 @@
             <color indexed="81"/>
             <rFont val="Arial"/>
           </rPr>
-          <t xml:space="preserve">BB Chapter 4.2
+          <t>BB Chapter 4.1.6</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Arial"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E48" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Arial"/>
+          </rPr>
+          <t xml:space="preserve">BB Team4 Chapter 3.1
 </t>
         </r>
         <r>
@@ -78,6 +296,32 @@
             <rFont val="Arial"/>
           </rPr>
           <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F48" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Arial"/>
+          </rPr>
+          <t xml:space="preserve">slide 26
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D49" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Arial"/>
+          </rPr>
+          <t xml:space="preserve">BB Team 7 Chapter 4.2.6
 </t>
         </r>
       </text>
@@ -95,7 +339,46 @@
         </r>
       </text>
     </comment>
+    <comment ref="E52" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Arial"/>
+          </rPr>
+          <t>BB Team 4 Chapter 3.7.2</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="D53" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Arial"/>
+          </rPr>
+          <t>BB: Chapter 5.1</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D60" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Arial"/>
+          </rPr>
+          <t>BB: Chapter 5.3.6</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E60" authorId="0">
       <text>
         <r>
           <rPr>
@@ -113,7 +396,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="264">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="337" uniqueCount="264">
   <si>
     <t>Ref. No.</t>
   </si>
@@ -997,7 +1280,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="25">
+  <cellStyleXfs count="105">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1023,8 +1306,88 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1058,15 +1421,12 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="25">
+  <cellStyles count="105">
     <cellStyle name="Besuchter Link" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Besuchter Link" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Besuchter Link" xfId="6" builtinId="9" hidden="1"/>
@@ -1079,6 +1439,46 @@
     <cellStyle name="Besuchter Link" xfId="20" builtinId="9" hidden="1"/>
     <cellStyle name="Besuchter Link" xfId="22" builtinId="9" hidden="1"/>
     <cellStyle name="Besuchter Link" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="26" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="28" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="30" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="32" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="34" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="36" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="38" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="40" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="42" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="44" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="46" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="48" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="50" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="52" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="54" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="56" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="58" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="60" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="62" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="64" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="66" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="68" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="70" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="72" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="74" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="76" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="78" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="80" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="82" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="84" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="86" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="88" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="90" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="92" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="94" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="96" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="98" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="100" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="102" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="104" builtinId="9" hidden="1"/>
     <cellStyle name="Link" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Link" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Link" xfId="5" builtinId="8" hidden="1"/>
@@ -1091,6 +1491,46 @@
     <cellStyle name="Link" xfId="19" builtinId="8" hidden="1"/>
     <cellStyle name="Link" xfId="21" builtinId="8" hidden="1"/>
     <cellStyle name="Link" xfId="23" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="25" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="27" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="29" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="31" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="33" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="35" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="37" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="39" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="41" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="43" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="45" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="47" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="49" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="51" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="53" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="55" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="57" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="59" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="61" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="63" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="65" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="67" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="69" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="71" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="73" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="75" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="77" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="79" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="81" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="83" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="85" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="87" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="89" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="91" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="93" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="95" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="97" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="99" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="101" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="103" builtinId="8" hidden="1"/>
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1479,8 +1919,8 @@
   <dimension ref="A1:Z980"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G13" sqref="G13"/>
+      <pane ySplit="1" topLeftCell="A70" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D80" sqref="D80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
@@ -1491,7 +1931,7 @@
     <col min="4" max="4" width="20.83203125" customWidth="1"/>
     <col min="5" max="5" width="17.33203125" customWidth="1"/>
     <col min="6" max="6" width="9.5" customWidth="1"/>
-    <col min="7" max="7" width="10.83203125" customWidth="1"/>
+    <col min="7" max="7" width="17.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="24.75" customHeight="1">
@@ -1594,9 +2034,15 @@
       <c r="C6" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="D6" s="8"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="4"/>
+      <c r="D6" s="11" t="s">
+        <v>262</v>
+      </c>
+      <c r="E6" s="12" t="s">
+        <v>263</v>
+      </c>
+      <c r="F6" s="11" t="s">
+        <v>28</v>
+      </c>
       <c r="G6" s="5"/>
     </row>
     <row r="7" spans="1:26" ht="12">
@@ -1639,9 +2085,15 @@
       <c r="C9" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="D9" s="8"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="8"/>
+      <c r="D9" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="E9" s="12" t="s">
+        <v>263</v>
+      </c>
+      <c r="F9" s="11" t="s">
+        <v>28</v>
+      </c>
       <c r="G9" s="5"/>
     </row>
     <row r="10" spans="1:26" ht="12">
@@ -1657,9 +2109,13 @@
       <c r="D10" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="E10" s="5"/>
+      <c r="E10" s="10" t="s">
+        <v>32</v>
+      </c>
       <c r="F10" s="4"/>
-      <c r="G10" s="5"/>
+      <c r="G10" s="10" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="11" spans="1:26" ht="12">
       <c r="D11" s="4"/>
@@ -1689,9 +2145,7 @@
       <c r="C13" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="D13" s="11" t="s">
-        <v>40</v>
-      </c>
+      <c r="D13" s="8"/>
       <c r="E13" s="5"/>
       <c r="F13" s="4"/>
       <c r="G13" s="5"/>
@@ -1816,9 +2270,15 @@
       <c r="C22" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="D22" s="4"/>
-      <c r="E22" s="5"/>
-      <c r="F22" s="4"/>
+      <c r="D22" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="E22" s="12" t="s">
+        <v>263</v>
+      </c>
+      <c r="F22" s="11" t="s">
+        <v>28</v>
+      </c>
       <c r="G22" s="5"/>
     </row>
     <row r="23" spans="1:7" ht="12">
@@ -1876,9 +2336,7 @@
       <c r="C26" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="D26" s="9" t="s">
-        <v>40</v>
-      </c>
+      <c r="D26" s="8"/>
       <c r="E26" s="5"/>
       <c r="F26" s="4"/>
       <c r="G26" s="5"/>
@@ -1896,9 +2354,13 @@
       <c r="D27" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="E27" s="5"/>
+      <c r="E27" s="10" t="s">
+        <v>32</v>
+      </c>
       <c r="F27" s="4"/>
-      <c r="G27" s="5"/>
+      <c r="G27" s="10" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="28" spans="1:7" ht="12">
       <c r="A28" s="6" t="s">
@@ -1913,9 +2375,13 @@
       <c r="D28" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="E28" s="5"/>
+      <c r="E28" s="10" t="s">
+        <v>32</v>
+      </c>
       <c r="F28" s="4"/>
-      <c r="G28" s="5"/>
+      <c r="G28" s="10" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="29" spans="1:7" ht="12">
       <c r="A29" s="6" t="s">
@@ -2005,9 +2471,15 @@
       <c r="C35" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="D35" s="4"/>
-      <c r="E35" s="5"/>
-      <c r="F35" s="4"/>
+      <c r="D35" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="E35" s="12" t="s">
+        <v>263</v>
+      </c>
+      <c r="F35" s="9" t="s">
+        <v>28</v>
+      </c>
       <c r="G35" s="5"/>
     </row>
     <row r="36" spans="1:7" ht="12">
@@ -2053,9 +2525,15 @@
       <c r="C39" s="6" t="s">
         <v>100</v>
       </c>
-      <c r="D39" s="4"/>
-      <c r="E39" s="5"/>
-      <c r="F39" s="4"/>
+      <c r="D39" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="E39" s="12" t="s">
+        <v>263</v>
+      </c>
+      <c r="F39" s="9" t="s">
+        <v>28</v>
+      </c>
       <c r="G39" s="5"/>
     </row>
     <row r="40" spans="1:7" ht="12">
@@ -2098,7 +2576,9 @@
       <c r="C42" s="6" t="s">
         <v>109</v>
       </c>
-      <c r="D42" s="4"/>
+      <c r="D42" s="14" t="s">
+        <v>11</v>
+      </c>
       <c r="E42" s="12" t="s">
         <v>263</v>
       </c>
@@ -2165,11 +2645,6 @@
       <c r="C47" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="D47" s="11" t="s">
-        <v>262</v>
-      </c>
-      <c r="E47" s="5"/>
-      <c r="F47" s="4"/>
       <c r="G47" s="5"/>
     </row>
     <row r="48" spans="1:7" ht="12">
@@ -2203,7 +2678,9 @@
       <c r="C49" s="6" t="s">
         <v>125</v>
       </c>
-      <c r="D49" s="4"/>
+      <c r="D49" s="11" t="s">
+        <v>262</v>
+      </c>
       <c r="E49" s="5"/>
       <c r="F49" s="4"/>
       <c r="G49" s="5"/>
@@ -2221,9 +2698,13 @@
       <c r="D50" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="E50" s="5"/>
+      <c r="E50" s="10" t="s">
+        <v>32</v>
+      </c>
       <c r="F50" s="4"/>
-      <c r="G50" s="5"/>
+      <c r="G50" s="10" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="51" spans="1:7" ht="12">
       <c r="A51" s="6" t="s">
@@ -2244,16 +2725,18 @@
       <c r="A52" s="6" t="s">
         <v>132</v>
       </c>
-      <c r="B52" s="14" t="s">
+      <c r="B52" s="13" t="s">
         <v>133</v>
       </c>
-      <c r="C52" s="14" t="s">
+      <c r="C52" s="13" t="s">
         <v>134</v>
       </c>
       <c r="D52" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="E52" s="5"/>
+      <c r="E52" s="11" t="s">
+        <v>40</v>
+      </c>
       <c r="F52" s="4"/>
       <c r="G52" s="5"/>
     </row>
@@ -2284,9 +2767,13 @@
       <c r="D54" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="E54" s="5"/>
+      <c r="E54" s="10" t="s">
+        <v>32</v>
+      </c>
       <c r="F54" s="4"/>
-      <c r="G54" s="5"/>
+      <c r="G54" s="10" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="55" spans="1:7" ht="12">
       <c r="A55" s="6" t="s">
@@ -2301,9 +2788,13 @@
       <c r="D55" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="E55" s="5"/>
+      <c r="E55" s="10" t="s">
+        <v>32</v>
+      </c>
       <c r="F55" s="4"/>
-      <c r="G55" s="5"/>
+      <c r="G55" s="10" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="56" spans="1:7" ht="12">
       <c r="A56" s="6" t="s">
@@ -2315,10 +2806,16 @@
       <c r="C56" s="6" t="s">
         <v>145</v>
       </c>
-      <c r="D56" s="4"/>
-      <c r="E56" s="5"/>
+      <c r="D56" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="E56" s="10" t="s">
+        <v>32</v>
+      </c>
       <c r="F56" s="4"/>
-      <c r="G56" s="5"/>
+      <c r="G56" s="10" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="57" spans="1:7" ht="12">
       <c r="A57" s="6" t="s">
@@ -2333,9 +2830,13 @@
       <c r="D57" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="E57" s="5"/>
+      <c r="E57" s="10" t="s">
+        <v>32</v>
+      </c>
       <c r="F57" s="4"/>
-      <c r="G57" s="5"/>
+      <c r="G57" s="10" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="58" spans="1:7" ht="12">
       <c r="A58" s="6" t="s">
@@ -2350,9 +2851,13 @@
       <c r="D58" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="E58" s="5"/>
+      <c r="E58" s="10" t="s">
+        <v>32</v>
+      </c>
       <c r="F58" s="4"/>
-      <c r="G58" s="5"/>
+      <c r="G58" s="10" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="59" spans="1:7" ht="12">
       <c r="A59" s="6" t="s">
@@ -2367,9 +2872,13 @@
       <c r="D59" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="E59" s="5"/>
+      <c r="E59" s="10" t="s">
+        <v>32</v>
+      </c>
       <c r="F59" s="4"/>
-      <c r="G59" s="5"/>
+      <c r="G59" s="10" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="60" spans="1:7" ht="12">
       <c r="A60" s="6" t="s">
@@ -2381,8 +2890,12 @@
       <c r="C60" s="6" t="s">
         <v>157</v>
       </c>
-      <c r="D60" s="4"/>
-      <c r="E60" s="5"/>
+      <c r="D60" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="E60" s="11" t="s">
+        <v>40</v>
+      </c>
       <c r="F60" s="4"/>
       <c r="G60" s="5"/>
     </row>
@@ -2435,8 +2948,12 @@
       <c r="C64" s="6" t="s">
         <v>167</v>
       </c>
-      <c r="D64" s="13"/>
-      <c r="E64" s="5"/>
+      <c r="D64" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="E64" s="14" t="s">
+        <v>11</v>
+      </c>
       <c r="F64" s="4"/>
       <c r="G64" s="5"/>
     </row>
@@ -2447,8 +2964,12 @@
       <c r="C65" s="6" t="s">
         <v>169</v>
       </c>
-      <c r="D65" s="13"/>
-      <c r="E65" s="5"/>
+      <c r="D65" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="E65" s="14" t="s">
+        <v>11</v>
+      </c>
       <c r="F65" s="4"/>
       <c r="G65" s="5"/>
     </row>
@@ -2459,8 +2980,12 @@
       <c r="C66" s="6" t="s">
         <v>171</v>
       </c>
-      <c r="D66" s="4"/>
-      <c r="E66" s="5"/>
+      <c r="D66" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="E66" s="14" t="s">
+        <v>11</v>
+      </c>
       <c r="F66" s="4"/>
       <c r="G66" s="5"/>
     </row>
@@ -2471,8 +2996,12 @@
       <c r="C67" s="6" t="s">
         <v>173</v>
       </c>
-      <c r="D67" s="4"/>
-      <c r="E67" s="5"/>
+      <c r="D67" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="E67" s="14" t="s">
+        <v>11</v>
+      </c>
       <c r="F67" s="4"/>
       <c r="G67" s="5"/>
     </row>
@@ -2480,7 +3009,7 @@
       <c r="A68" s="6" t="s">
         <v>174</v>
       </c>
-      <c r="B68" s="6" t="s">
+      <c r="B68" s="13" t="s">
         <v>175</v>
       </c>
       <c r="C68" s="6" t="s">
@@ -2501,7 +3030,7 @@
       <c r="C69" s="6" t="s">
         <v>179</v>
       </c>
-      <c r="D69" s="15" t="s">
+      <c r="D69" s="14" t="s">
         <v>11</v>
       </c>
       <c r="E69" s="5"/>
@@ -2602,9 +3131,13 @@
       <c r="D77" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="E77" s="5"/>
+      <c r="E77" s="10" t="s">
+        <v>32</v>
+      </c>
       <c r="F77" s="4"/>
-      <c r="G77" s="5"/>
+      <c r="G77" s="10" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="78" spans="1:7" ht="12">
       <c r="A78" s="6" t="s">
@@ -2649,9 +3182,7 @@
       <c r="C81" s="6" t="s">
         <v>200</v>
       </c>
-      <c r="D81" s="15" t="s">
-        <v>11</v>
-      </c>
+      <c r="D81" s="8"/>
       <c r="E81" s="5"/>
       <c r="F81" s="4"/>
       <c r="G81" s="5"/>
@@ -2696,8 +3227,12 @@
       <c r="C84" s="6" t="s">
         <v>209</v>
       </c>
-      <c r="D84" s="4"/>
-      <c r="E84" s="5"/>
+      <c r="D84" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="E84" s="14" t="s">
+        <v>11</v>
+      </c>
       <c r="F84" s="4"/>
       <c r="G84" s="12" t="s">
         <v>27</v>
@@ -2851,7 +3386,7 @@
       <c r="C95" s="6" t="s">
         <v>237</v>
       </c>
-      <c r="D95" s="15" t="s">
+      <c r="D95" s="14" t="s">
         <v>11</v>
       </c>
       <c r="E95" s="5"/>
@@ -2868,7 +3403,7 @@
       <c r="C96" s="6" t="s">
         <v>240</v>
       </c>
-      <c r="D96" s="15" t="s">
+      <c r="D96" s="14" t="s">
         <v>11</v>
       </c>
       <c r="E96" s="5"/>
@@ -8254,6 +8789,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <drawing r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
   <extLst>

--- a/Custom-OWASP-Checklist-Phase4.xlsx
+++ b/Custom-OWASP-Checklist-Phase4.xlsx
@@ -123,8 +123,8 @@
             <color indexed="81"/>
             <rFont val="Arial"/>
           </rPr>
-          <t xml:space="preserve">BB Team4 Chapter 3.5
-</t>
+          <t>BB Team4 Chapter 3.5
+in terms of transaction ids</t>
         </r>
       </text>
     </comment>
@@ -182,6 +182,19 @@
           </rPr>
           <t xml:space="preserve">
 </t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G38" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Arial"/>
+          </rPr>
+          <t>WB Chapter OTG-AUTHZ-003</t>
         </r>
       </text>
     </comment>
@@ -243,6 +256,28 @@
             <rFont val="Arial"/>
           </rPr>
           <t>Slide 30</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Arial"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G44" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Arial"/>
+          </rPr>
+          <t>mentioned above</t>
         </r>
         <r>
           <rPr>
@@ -391,12 +426,69 @@
         </r>
       </text>
     </comment>
+    <comment ref="D63" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Arial"/>
+          </rPr>
+          <t>BB: Chapter 5.3.6</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G82" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Arial"/>
+          </rPr>
+          <t>above otg-buslogic-001</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Arial"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G83" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Arial"/>
+          </rPr>
+          <t>above otg-buslogic-001</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Arial"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="337" uniqueCount="264">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="494" uniqueCount="267">
   <si>
     <t>Ref. No.</t>
   </si>
@@ -1188,6 +1280,15 @@
   </si>
   <si>
     <t>vulnerable</t>
+  </si>
+  <si>
+    <t>Secure?</t>
+  </si>
+  <si>
+    <t>secure?</t>
+  </si>
+  <si>
+    <t>vulnerable?</t>
   </si>
 </sst>
 </file>
@@ -1232,7 +1333,7 @@
       <name val="Arial"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1263,6 +1364,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFDB57"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -1280,7 +1387,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="105">
+  <cellStyleXfs count="255">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1386,8 +1493,158 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1425,8 +1682,20 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="105">
+  <cellStyles count="255">
     <cellStyle name="Besuchter Link" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Besuchter Link" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Besuchter Link" xfId="6" builtinId="9" hidden="1"/>
@@ -1479,6 +1748,81 @@
     <cellStyle name="Besuchter Link" xfId="100" builtinId="9" hidden="1"/>
     <cellStyle name="Besuchter Link" xfId="102" builtinId="9" hidden="1"/>
     <cellStyle name="Besuchter Link" xfId="104" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="106" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="108" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="110" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="112" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="114" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="116" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="118" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="120" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="122" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="124" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="126" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="128" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="130" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="132" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="134" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="136" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="138" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="140" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="142" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="144" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="146" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="148" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="150" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="152" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="154" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="156" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="158" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="160" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="162" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="164" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="166" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="168" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="170" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="172" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="174" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="176" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="178" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="180" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="182" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="184" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="186" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="188" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="190" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="192" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="194" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="196" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="198" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="200" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="202" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="204" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="206" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="208" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="210" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="212" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="214" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="216" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="218" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="220" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="222" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="224" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="226" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="228" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="230" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="232" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="234" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="236" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="238" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="240" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="242" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="244" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="246" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="248" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="250" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="252" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="254" builtinId="9" hidden="1"/>
     <cellStyle name="Link" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Link" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Link" xfId="5" builtinId="8" hidden="1"/>
@@ -1531,6 +1875,81 @@
     <cellStyle name="Link" xfId="99" builtinId="8" hidden="1"/>
     <cellStyle name="Link" xfId="101" builtinId="8" hidden="1"/>
     <cellStyle name="Link" xfId="103" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="105" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="107" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="109" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="111" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="113" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="115" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="117" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="119" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="121" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="123" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="125" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="127" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="129" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="131" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="133" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="135" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="137" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="139" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="141" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="143" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="145" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="147" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="149" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="151" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="153" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="155" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="157" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="159" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="161" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="163" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="165" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="167" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="169" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="171" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="173" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="175" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="177" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="179" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="181" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="183" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="185" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="187" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="189" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="191" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="193" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="195" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="197" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="199" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="201" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="203" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="205" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="207" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="209" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="211" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="213" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="215" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="217" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="219" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="221" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="223" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="225" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="227" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="229" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="231" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="233" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="235" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="237" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="239" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="241" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="243" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="245" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="247" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="249" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="251" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="253" builtinId="8" hidden="1"/>
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1918,9 +2337,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z980"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A70" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D80" sqref="D80"/>
+    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A75" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G100" sqref="G100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
@@ -1992,37 +2411,49 @@
       <c r="D3" s="4"/>
       <c r="E3" s="5"/>
       <c r="F3" s="4"/>
-      <c r="G3" s="5"/>
+      <c r="G3" s="15"/>
     </row>
     <row r="4" spans="1:26" ht="12">
       <c r="A4" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="8"/>
-      <c r="E4" s="5"/>
+      <c r="D4" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" s="14" t="s">
+        <v>11</v>
+      </c>
       <c r="F4" s="4"/>
-      <c r="G4" s="5"/>
+      <c r="G4" s="15" t="s">
+        <v>264</v>
+      </c>
     </row>
     <row r="5" spans="1:26" ht="12">
       <c r="A5" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="C5" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="D5" s="8"/>
-      <c r="E5" s="5"/>
+      <c r="D5" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" s="14" t="s">
+        <v>11</v>
+      </c>
       <c r="F5" s="4"/>
-      <c r="G5" s="5"/>
+      <c r="G5" s="15" t="s">
+        <v>264</v>
+      </c>
     </row>
     <row r="6" spans="1:26" ht="12">
       <c r="A6" s="6" t="s">
@@ -2052,13 +2483,19 @@
       <c r="B7" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="C7" s="6" t="s">
+      <c r="C7" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="D7" s="4"/>
-      <c r="E7" s="5"/>
+      <c r="D7" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="E7" s="14" t="s">
+        <v>11</v>
+      </c>
       <c r="F7" s="4"/>
-      <c r="G7" s="5"/>
+      <c r="G7" s="16" t="s">
+        <v>264</v>
+      </c>
     </row>
     <row r="8" spans="1:26" ht="12">
       <c r="A8" s="6" t="s">
@@ -2070,10 +2507,18 @@
       <c r="C8" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="D8" s="4"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="5"/>
+      <c r="D8" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="E8" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="F8" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="G8" s="16" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="9" spans="1:26" ht="12">
       <c r="A9" s="6" t="s">
@@ -2145,10 +2590,16 @@
       <c r="C13" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="D13" s="8"/>
-      <c r="E13" s="5"/>
+      <c r="D13" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="E13" s="14" t="s">
+        <v>11</v>
+      </c>
       <c r="F13" s="4"/>
-      <c r="G13" s="5"/>
+      <c r="G13" s="15" t="s">
+        <v>265</v>
+      </c>
     </row>
     <row r="14" spans="1:26" ht="12">
       <c r="A14" s="6" t="s">
@@ -2160,10 +2611,16 @@
       <c r="C14" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="D14" s="8"/>
-      <c r="E14" s="5"/>
+      <c r="D14" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="E14" s="14" t="s">
+        <v>11</v>
+      </c>
       <c r="F14" s="4"/>
-      <c r="G14" s="5"/>
+      <c r="G14" s="15" t="s">
+        <v>265</v>
+      </c>
     </row>
     <row r="15" spans="1:26" ht="12">
       <c r="A15" s="6" t="s">
@@ -2175,10 +2632,16 @@
       <c r="C15" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="D15" s="4"/>
-      <c r="E15" s="5"/>
+      <c r="D15" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="E15" s="14" t="s">
+        <v>11</v>
+      </c>
       <c r="F15" s="4"/>
-      <c r="G15" s="5"/>
+      <c r="G15" s="15" t="s">
+        <v>265</v>
+      </c>
     </row>
     <row r="16" spans="1:26" ht="12">
       <c r="A16" s="6" t="s">
@@ -2190,8 +2653,12 @@
       <c r="C16" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="D16" s="4"/>
-      <c r="E16" s="5"/>
+      <c r="D16" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="E16" s="17" t="s">
+        <v>11</v>
+      </c>
       <c r="F16" s="4"/>
       <c r="G16" s="11" t="s">
         <v>40</v>
@@ -2207,10 +2674,16 @@
       <c r="C17" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="D17" s="8"/>
-      <c r="E17" s="5"/>
+      <c r="D17" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="E17" s="17" t="s">
+        <v>11</v>
+      </c>
       <c r="F17" s="8"/>
-      <c r="G17" s="5"/>
+      <c r="G17" s="15" t="s">
+        <v>265</v>
+      </c>
     </row>
     <row r="18" spans="1:7" ht="12">
       <c r="D18" s="4"/>
@@ -2240,10 +2713,16 @@
       <c r="C20" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="D20" s="4"/>
-      <c r="E20" s="5"/>
+      <c r="D20" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="E20" s="17" t="s">
+        <v>11</v>
+      </c>
       <c r="F20" s="4"/>
-      <c r="G20" s="5"/>
+      <c r="G20" s="15" t="s">
+        <v>265</v>
+      </c>
     </row>
     <row r="21" spans="1:7" ht="12">
       <c r="A21" s="6" t="s">
@@ -2255,10 +2734,16 @@
       <c r="C21" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="D21" s="4"/>
-      <c r="E21" s="5"/>
+      <c r="D21" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="E21" s="17" t="s">
+        <v>11</v>
+      </c>
       <c r="F21" s="4"/>
-      <c r="G21" s="5"/>
+      <c r="G21" s="15" t="s">
+        <v>265</v>
+      </c>
     </row>
     <row r="22" spans="1:7" ht="12">
       <c r="A22" s="6" t="s">
@@ -2279,7 +2764,9 @@
       <c r="F22" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="G22" s="5"/>
+      <c r="G22" s="15" t="s">
+        <v>266</v>
+      </c>
     </row>
     <row r="23" spans="1:7" ht="12">
       <c r="A23" s="6" t="s">
@@ -2291,10 +2778,16 @@
       <c r="C23" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="D23" s="4"/>
-      <c r="E23" s="5"/>
+      <c r="D23" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="E23" s="14" t="s">
+        <v>11</v>
+      </c>
       <c r="F23" s="4"/>
-      <c r="G23" s="5"/>
+      <c r="G23" s="15" t="s">
+        <v>265</v>
+      </c>
     </row>
     <row r="24" spans="1:7" ht="12">
       <c r="A24" s="6" t="s">
@@ -2306,10 +2799,16 @@
       <c r="C24" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="D24" s="4"/>
-      <c r="E24" s="5"/>
+      <c r="D24" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="E24" s="14" t="s">
+        <v>11</v>
+      </c>
       <c r="F24" s="4"/>
-      <c r="G24" s="5"/>
+      <c r="G24" s="15" t="s">
+        <v>265</v>
+      </c>
     </row>
     <row r="25" spans="1:7" ht="12">
       <c r="A25" s="6" t="s">
@@ -2321,10 +2820,16 @@
       <c r="C25" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="D25" s="4"/>
-      <c r="E25" s="5"/>
+      <c r="D25" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="E25" s="14" t="s">
+        <v>11</v>
+      </c>
       <c r="F25" s="4"/>
-      <c r="G25" s="5"/>
+      <c r="G25" s="15" t="s">
+        <v>265</v>
+      </c>
     </row>
     <row r="26" spans="1:7" ht="12">
       <c r="A26" s="6" t="s">
@@ -2336,10 +2841,16 @@
       <c r="C26" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="D26" s="8"/>
-      <c r="E26" s="5"/>
+      <c r="D26" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="E26" s="14" t="s">
+        <v>11</v>
+      </c>
       <c r="F26" s="4"/>
-      <c r="G26" s="5"/>
+      <c r="G26" s="15" t="s">
+        <v>265</v>
+      </c>
     </row>
     <row r="27" spans="1:7" ht="12">
       <c r="A27" s="6" t="s">
@@ -2369,7 +2880,7 @@
       <c r="B28" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="C28" s="6" t="s">
+      <c r="C28" s="13" t="s">
         <v>77</v>
       </c>
       <c r="D28" s="10" t="s">
@@ -2379,8 +2890,8 @@
         <v>32</v>
       </c>
       <c r="F28" s="4"/>
-      <c r="G28" s="10" t="s">
-        <v>32</v>
+      <c r="G28" s="12" t="s">
+        <v>266</v>
       </c>
     </row>
     <row r="29" spans="1:7" ht="12">
@@ -2393,10 +2904,16 @@
       <c r="C29" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="D29" s="4"/>
-      <c r="E29" s="5"/>
+      <c r="D29" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="E29" s="10" t="s">
+        <v>32</v>
+      </c>
       <c r="F29" s="4"/>
-      <c r="G29" s="5"/>
+      <c r="G29" s="10" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="30" spans="1:7" ht="12">
       <c r="D30" s="4"/>
@@ -2426,10 +2943,16 @@
       <c r="C32" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="D32" s="4"/>
-      <c r="E32" s="5"/>
+      <c r="D32" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="E32" s="17" t="s">
+        <v>11</v>
+      </c>
       <c r="F32" s="4"/>
-      <c r="G32" s="5"/>
+      <c r="G32" s="15" t="s">
+        <v>265</v>
+      </c>
     </row>
     <row r="33" spans="1:7" ht="12">
       <c r="A33" s="6" t="s">
@@ -2441,10 +2964,16 @@
       <c r="C33" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="D33" s="4"/>
-      <c r="E33" s="5"/>
+      <c r="D33" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="E33" s="17" t="s">
+        <v>11</v>
+      </c>
       <c r="F33" s="4"/>
-      <c r="G33" s="5"/>
+      <c r="G33" s="15" t="s">
+        <v>265</v>
+      </c>
     </row>
     <row r="34" spans="1:7" ht="12">
       <c r="A34" s="6" t="s">
@@ -2456,10 +2985,16 @@
       <c r="C34" s="6" t="s">
         <v>90</v>
       </c>
-      <c r="D34" s="4"/>
-      <c r="E34" s="5"/>
+      <c r="D34" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="E34" s="17" t="s">
+        <v>11</v>
+      </c>
       <c r="F34" s="4"/>
-      <c r="G34" s="5"/>
+      <c r="G34" s="15" t="s">
+        <v>265</v>
+      </c>
     </row>
     <row r="35" spans="1:7" ht="12">
       <c r="A35" s="6" t="s">
@@ -2510,10 +3045,16 @@
       <c r="C38" s="6" t="s">
         <v>97</v>
       </c>
-      <c r="D38" s="4"/>
-      <c r="E38" s="5"/>
+      <c r="D38" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="E38" s="14" t="s">
+        <v>11</v>
+      </c>
       <c r="F38" s="4"/>
-      <c r="G38" s="5"/>
+      <c r="G38" s="15" t="s">
+        <v>262</v>
+      </c>
     </row>
     <row r="39" spans="1:7" ht="12">
       <c r="A39" s="6" t="s">
@@ -2546,10 +3087,16 @@
       <c r="C40" s="6" t="s">
         <v>103</v>
       </c>
-      <c r="D40" s="4"/>
-      <c r="E40" s="5"/>
+      <c r="D40" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="E40" s="14" t="s">
+        <v>11</v>
+      </c>
       <c r="F40" s="4"/>
-      <c r="G40" s="5"/>
+      <c r="G40" s="15" t="s">
+        <v>265</v>
+      </c>
     </row>
     <row r="41" spans="1:7" ht="12">
       <c r="A41" s="6" t="s">
@@ -2561,10 +3108,16 @@
       <c r="C41" s="6" t="s">
         <v>106</v>
       </c>
-      <c r="D41" s="4"/>
-      <c r="E41" s="5"/>
+      <c r="D41" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="E41" s="14" t="s">
+        <v>11</v>
+      </c>
       <c r="F41" s="4"/>
-      <c r="G41" s="5"/>
+      <c r="G41" s="15" t="s">
+        <v>265</v>
+      </c>
     </row>
     <row r="42" spans="1:7" ht="12">
       <c r="A42" s="6" t="s">
@@ -2597,10 +3150,16 @@
       <c r="C43" s="6" t="s">
         <v>112</v>
       </c>
-      <c r="D43" s="4"/>
-      <c r="E43" s="5"/>
+      <c r="D43" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="E43" s="14" t="s">
+        <v>11</v>
+      </c>
       <c r="F43" s="4"/>
-      <c r="G43" s="5"/>
+      <c r="G43" s="15" t="s">
+        <v>265</v>
+      </c>
     </row>
     <row r="44" spans="1:7" ht="12">
       <c r="A44" s="6" t="s">
@@ -2612,10 +3171,16 @@
       <c r="C44" s="6" t="s">
         <v>115</v>
       </c>
-      <c r="D44" s="4"/>
-      <c r="E44" s="5"/>
+      <c r="D44" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="E44" s="17" t="s">
+        <v>11</v>
+      </c>
       <c r="F44" s="4"/>
-      <c r="G44" s="5"/>
+      <c r="G44" s="15" t="s">
+        <v>265</v>
+      </c>
     </row>
     <row r="45" spans="1:7" ht="12">
       <c r="A45" s="6" t="s">
@@ -2627,10 +3192,16 @@
       <c r="C45" s="6" t="s">
         <v>118</v>
       </c>
-      <c r="D45" s="4"/>
-      <c r="E45" s="5"/>
+      <c r="D45" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="E45" s="17" t="s">
+        <v>11</v>
+      </c>
       <c r="F45" s="4"/>
-      <c r="G45" s="5"/>
+      <c r="G45" s="15" t="s">
+        <v>265</v>
+      </c>
     </row>
     <row r="46" spans="1:7" ht="12">
       <c r="D46" s="4"/>
@@ -2681,7 +3252,9 @@
       <c r="D49" s="11" t="s">
         <v>262</v>
       </c>
-      <c r="E49" s="5"/>
+      <c r="E49" s="17" t="s">
+        <v>11</v>
+      </c>
       <c r="F49" s="4"/>
       <c r="G49" s="5"/>
     </row>
@@ -2716,10 +3289,16 @@
       <c r="C51" s="6" t="s">
         <v>131</v>
       </c>
-      <c r="D51" s="4"/>
-      <c r="E51" s="5"/>
+      <c r="D51" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="E51" s="10" t="s">
+        <v>32</v>
+      </c>
       <c r="F51" s="4"/>
-      <c r="G51" s="5"/>
+      <c r="G51" s="10" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="52" spans="1:7" ht="12">
       <c r="A52" s="6" t="s">
@@ -2933,10 +3512,16 @@
       <c r="C63" s="6" t="s">
         <v>164</v>
       </c>
-      <c r="D63" s="8"/>
-      <c r="E63" s="5"/>
+      <c r="D63" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="E63" s="14" t="s">
+        <v>11</v>
+      </c>
       <c r="F63" s="4"/>
-      <c r="G63" s="5"/>
+      <c r="G63" s="15" t="s">
+        <v>265</v>
+      </c>
     </row>
     <row r="64" spans="1:7" ht="12">
       <c r="A64" s="6" t="s">
@@ -2955,7 +3540,9 @@
         <v>11</v>
       </c>
       <c r="F64" s="4"/>
-      <c r="G64" s="5"/>
+      <c r="G64" s="18" t="s">
+        <v>265</v>
+      </c>
     </row>
     <row r="65" spans="1:7" ht="12">
       <c r="A65" s="6" t="s">
@@ -2971,7 +3558,9 @@
         <v>11</v>
       </c>
       <c r="F65" s="4"/>
-      <c r="G65" s="5"/>
+      <c r="G65" s="18" t="s">
+        <v>265</v>
+      </c>
     </row>
     <row r="66" spans="1:7" ht="12">
       <c r="A66" s="6" t="s">
@@ -2987,7 +3576,9 @@
         <v>11</v>
       </c>
       <c r="F66" s="4"/>
-      <c r="G66" s="5"/>
+      <c r="G66" s="18" t="s">
+        <v>265</v>
+      </c>
     </row>
     <row r="67" spans="1:7" ht="12">
       <c r="A67" s="6" t="s">
@@ -3003,7 +3594,9 @@
         <v>11</v>
       </c>
       <c r="F67" s="4"/>
-      <c r="G67" s="5"/>
+      <c r="G67" s="18" t="s">
+        <v>265</v>
+      </c>
     </row>
     <row r="68" spans="1:7" ht="12">
       <c r="A68" s="6" t="s">
@@ -3015,10 +3608,16 @@
       <c r="C68" s="6" t="s">
         <v>176</v>
       </c>
-      <c r="D68" s="4"/>
-      <c r="E68" s="5"/>
+      <c r="D68" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="E68" s="10" t="s">
+        <v>32</v>
+      </c>
       <c r="F68" s="4"/>
-      <c r="G68" s="5"/>
+      <c r="G68" s="10" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="69" spans="1:7" ht="12">
       <c r="A69" s="6" t="s">
@@ -3033,9 +3632,13 @@
       <c r="D69" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="E69" s="5"/>
+      <c r="E69" s="14" t="s">
+        <v>11</v>
+      </c>
       <c r="F69" s="4"/>
-      <c r="G69" s="5"/>
+      <c r="G69" s="14" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="70" spans="1:7" ht="12">
       <c r="D70" s="4"/>
@@ -3065,10 +3668,16 @@
       <c r="C72" s="6" t="s">
         <v>183</v>
       </c>
-      <c r="D72" s="4"/>
-      <c r="E72" s="5"/>
+      <c r="D72" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="E72" s="10" t="s">
+        <v>32</v>
+      </c>
       <c r="F72" s="4"/>
-      <c r="G72" s="5"/>
+      <c r="G72" s="10" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="73" spans="1:7" ht="12">
       <c r="A73" s="6" t="s">
@@ -3080,10 +3689,16 @@
       <c r="C73" s="6" t="s">
         <v>186</v>
       </c>
-      <c r="D73" s="4"/>
-      <c r="E73" s="5"/>
+      <c r="D73" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="E73" s="10" t="s">
+        <v>32</v>
+      </c>
       <c r="F73" s="4"/>
-      <c r="G73" s="5"/>
+      <c r="G73" s="10" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="74" spans="1:7" ht="12">
       <c r="D74" s="4"/>
@@ -3113,10 +3728,16 @@
       <c r="C76" s="6" t="s">
         <v>190</v>
       </c>
-      <c r="D76" s="4"/>
-      <c r="E76" s="5"/>
+      <c r="D76" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="E76" s="14" t="s">
+        <v>11</v>
+      </c>
       <c r="F76" s="4"/>
-      <c r="G76" s="5"/>
+      <c r="G76" s="15" t="s">
+        <v>265</v>
+      </c>
     </row>
     <row r="77" spans="1:7" ht="12">
       <c r="A77" s="6" t="s">
@@ -3149,10 +3770,16 @@
       <c r="C78" s="6" t="s">
         <v>196</v>
       </c>
-      <c r="D78" s="4"/>
-      <c r="E78" s="5"/>
+      <c r="D78" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="E78" s="14" t="s">
+        <v>11</v>
+      </c>
       <c r="F78" s="4"/>
-      <c r="G78" s="5"/>
+      <c r="G78" s="15" t="s">
+        <v>265</v>
+      </c>
     </row>
     <row r="79" spans="1:7" ht="12">
       <c r="D79" s="4"/>
@@ -3182,10 +3809,16 @@
       <c r="C81" s="6" t="s">
         <v>200</v>
       </c>
-      <c r="D81" s="8"/>
-      <c r="E81" s="5"/>
+      <c r="D81" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="E81" s="14" t="s">
+        <v>11</v>
+      </c>
       <c r="F81" s="4"/>
-      <c r="G81" s="5"/>
+      <c r="G81" s="15" t="s">
+        <v>265</v>
+      </c>
     </row>
     <row r="82" spans="1:7" ht="12">
       <c r="A82" s="6" t="s">
@@ -3197,10 +3830,16 @@
       <c r="C82" s="6" t="s">
         <v>203</v>
       </c>
-      <c r="D82" s="4"/>
-      <c r="E82" s="5"/>
+      <c r="D82" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="E82" s="14" t="s">
+        <v>11</v>
+      </c>
       <c r="F82" s="4"/>
-      <c r="G82" s="5"/>
+      <c r="G82" s="15" t="s">
+        <v>265</v>
+      </c>
     </row>
     <row r="83" spans="1:7" ht="12">
       <c r="A83" s="6" t="s">
@@ -3212,10 +3851,16 @@
       <c r="C83" s="6" t="s">
         <v>206</v>
       </c>
-      <c r="D83" s="4"/>
-      <c r="E83" s="5"/>
+      <c r="D83" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="E83" s="14" t="s">
+        <v>11</v>
+      </c>
       <c r="F83" s="4"/>
-      <c r="G83" s="5"/>
+      <c r="G83" s="15" t="s">
+        <v>265</v>
+      </c>
     </row>
     <row r="84" spans="1:7" ht="12">
       <c r="A84" s="6" t="s">
@@ -3248,10 +3893,16 @@
       <c r="C85" s="6" t="s">
         <v>212</v>
       </c>
-      <c r="D85" s="4"/>
-      <c r="E85" s="5"/>
+      <c r="D85" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="E85" s="10" t="s">
+        <v>32</v>
+      </c>
       <c r="F85" s="4"/>
-      <c r="G85" s="5"/>
+      <c r="G85" s="10" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="86" spans="1:7" ht="12">
       <c r="A86" s="6" t="s">
@@ -3263,10 +3914,16 @@
       <c r="C86" s="6" t="s">
         <v>215</v>
       </c>
-      <c r="D86" s="4"/>
-      <c r="E86" s="5"/>
+      <c r="D86" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="E86" s="14" t="s">
+        <v>11</v>
+      </c>
       <c r="F86" s="4"/>
-      <c r="G86" s="5"/>
+      <c r="G86" s="15" t="s">
+        <v>265</v>
+      </c>
     </row>
     <row r="87" spans="1:7" ht="12">
       <c r="A87" s="6" t="s">
@@ -3278,10 +3935,16 @@
       <c r="C87" s="6" t="s">
         <v>218</v>
       </c>
-      <c r="D87" s="4"/>
-      <c r="E87" s="5"/>
+      <c r="D87" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="E87" s="14" t="s">
+        <v>11</v>
+      </c>
       <c r="F87" s="4"/>
-      <c r="G87" s="5"/>
+      <c r="G87" s="12" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="88" spans="1:7" ht="12">
       <c r="A88" s="6" t="s">
@@ -3293,25 +3956,37 @@
       <c r="C88" s="6" t="s">
         <v>221</v>
       </c>
-      <c r="D88" s="4"/>
-      <c r="E88" s="5"/>
+      <c r="D88" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="E88" s="14" t="s">
+        <v>11</v>
+      </c>
       <c r="F88" s="4"/>
-      <c r="G88" s="5"/>
+      <c r="G88" s="12" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="89" spans="1:7" ht="12">
       <c r="A89" s="6" t="s">
         <v>222</v>
       </c>
-      <c r="B89" s="6" t="s">
+      <c r="B89" s="13" t="s">
         <v>223</v>
       </c>
-      <c r="C89" s="6" t="s">
+      <c r="C89" s="13" t="s">
         <v>224</v>
       </c>
-      <c r="D89" s="4"/>
-      <c r="E89" s="5"/>
+      <c r="D89" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="E89" s="14" t="s">
+        <v>11</v>
+      </c>
       <c r="F89" s="4"/>
-      <c r="G89" s="5"/>
+      <c r="G89" s="12" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="90" spans="1:7" ht="12">
       <c r="D90" s="4"/>
@@ -3341,10 +4016,16 @@
       <c r="C92" s="6" t="s">
         <v>228</v>
       </c>
-      <c r="D92" s="4"/>
-      <c r="E92" s="5"/>
+      <c r="D92" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="E92" s="10" t="s">
+        <v>32</v>
+      </c>
       <c r="F92" s="4"/>
-      <c r="G92" s="5"/>
+      <c r="G92" s="10" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="93" spans="1:7" ht="12">
       <c r="A93" s="6" t="s">
@@ -3356,10 +4037,16 @@
       <c r="C93" s="6" t="s">
         <v>231</v>
       </c>
-      <c r="D93" s="4"/>
-      <c r="E93" s="5"/>
+      <c r="D93" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="E93" s="14" t="s">
+        <v>11</v>
+      </c>
       <c r="F93" s="4"/>
-      <c r="G93" s="5"/>
+      <c r="G93" s="15" t="s">
+        <v>265</v>
+      </c>
     </row>
     <row r="94" spans="1:7" ht="12">
       <c r="A94" s="6" t="s">
@@ -3371,10 +4058,16 @@
       <c r="C94" s="6" t="s">
         <v>234</v>
       </c>
-      <c r="D94" s="4"/>
-      <c r="E94" s="5"/>
+      <c r="D94" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="E94" s="14" t="s">
+        <v>11</v>
+      </c>
       <c r="F94" s="4"/>
-      <c r="G94" s="5"/>
+      <c r="G94" s="14" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="95" spans="1:7" ht="12">
       <c r="A95" s="6" t="s">
@@ -3389,9 +4082,13 @@
       <c r="D95" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="E95" s="5"/>
+      <c r="E95" s="14" t="s">
+        <v>11</v>
+      </c>
       <c r="F95" s="4"/>
-      <c r="G95" s="5"/>
+      <c r="G95" s="15" t="s">
+        <v>265</v>
+      </c>
     </row>
     <row r="96" spans="1:7" ht="12">
       <c r="A96" s="6" t="s">
@@ -3406,9 +4103,13 @@
       <c r="D96" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="E96" s="5"/>
+      <c r="E96" s="14" t="s">
+        <v>11</v>
+      </c>
       <c r="F96" s="4"/>
-      <c r="G96" s="5"/>
+      <c r="G96" s="15" t="s">
+        <v>265</v>
+      </c>
     </row>
     <row r="97" spans="1:7" ht="12">
       <c r="A97" s="6" t="s">
@@ -3420,10 +4121,16 @@
       <c r="C97" s="6" t="s">
         <v>243</v>
       </c>
-      <c r="D97" s="4"/>
-      <c r="E97" s="5"/>
+      <c r="D97" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="E97" s="10" t="s">
+        <v>32</v>
+      </c>
       <c r="F97" s="4"/>
-      <c r="G97" s="5"/>
+      <c r="G97" s="10" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="98" spans="1:7" ht="12">
       <c r="A98" s="6" t="s">
@@ -3438,9 +4145,13 @@
       <c r="D98" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="E98" s="5"/>
+      <c r="E98" s="10" t="s">
+        <v>32</v>
+      </c>
       <c r="F98" s="4"/>
-      <c r="G98" s="5"/>
+      <c r="G98" s="10" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="99" spans="1:7" ht="12">
       <c r="A99" s="6" t="s">
@@ -3455,9 +4166,13 @@
       <c r="D99" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="E99" s="5"/>
+      <c r="E99" s="10" t="s">
+        <v>32</v>
+      </c>
       <c r="F99" s="4"/>
-      <c r="G99" s="5"/>
+      <c r="G99" s="10" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="100" spans="1:7" ht="12">
       <c r="A100" s="6" t="s">
@@ -3469,10 +4184,16 @@
       <c r="C100" s="6" t="s">
         <v>252</v>
       </c>
-      <c r="D100" s="4"/>
-      <c r="E100" s="5"/>
+      <c r="D100" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="E100" s="14" t="s">
+        <v>11</v>
+      </c>
       <c r="F100" s="4"/>
-      <c r="G100" s="5"/>
+      <c r="G100" s="14" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="101" spans="1:7" ht="12">
       <c r="A101" s="6" t="s">
@@ -3487,9 +4208,13 @@
       <c r="D101" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="E101" s="5"/>
+      <c r="E101" s="10" t="s">
+        <v>32</v>
+      </c>
       <c r="F101" s="4"/>
-      <c r="G101" s="5"/>
+      <c r="G101" s="10" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="102" spans="1:7" ht="12">
       <c r="A102" s="6" t="s">
@@ -3504,9 +4229,13 @@
       <c r="D102" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="E102" s="5"/>
+      <c r="E102" s="10" t="s">
+        <v>32</v>
+      </c>
       <c r="F102" s="4"/>
-      <c r="G102" s="5"/>
+      <c r="G102" s="10" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="103" spans="1:7" ht="12">
       <c r="A103" s="6" t="s">
@@ -3521,9 +4250,13 @@
       <c r="D103" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="E103" s="5"/>
+      <c r="E103" s="10" t="s">
+        <v>32</v>
+      </c>
       <c r="F103" s="4"/>
-      <c r="G103" s="5"/>
+      <c r="G103" s="10" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="104" spans="1:7" ht="12">
       <c r="D104" s="4"/>
